--- a/Code/Results/Cases/Case_5_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.125437531438536</v>
+        <v>1.890262829142614</v>
       </c>
       <c r="C2">
-        <v>0.0579732279925409</v>
+        <v>0.01399785247282637</v>
       </c>
       <c r="D2">
-        <v>0.09738343588107057</v>
+        <v>0.02396514811884032</v>
       </c>
       <c r="E2">
-        <v>0.0185024671872478</v>
+        <v>0.06982531799436043</v>
       </c>
       <c r="F2">
-        <v>7.761069866449731</v>
+        <v>7.206549594585169</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1992780157551408</v>
+        <v>0.2626523037579247</v>
       </c>
       <c r="K2">
-        <v>0.9272967107650345</v>
+        <v>1.335197723484129</v>
       </c>
       <c r="L2">
-        <v>0.08498166395846596</v>
+        <v>0.2571189953132063</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.016819153727681</v>
+        <v>1.885041995309194</v>
       </c>
       <c r="C3">
-        <v>0.04962171949503613</v>
+        <v>0.0122322069236489</v>
       </c>
       <c r="D3">
-        <v>0.08586621631856417</v>
+        <v>0.02095857312384908</v>
       </c>
       <c r="E3">
-        <v>0.01859639533392254</v>
+        <v>0.07035925692298939</v>
       </c>
       <c r="F3">
-        <v>7.112975094872098</v>
+        <v>7.013907244349809</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1874623171961076</v>
+        <v>0.2592143794182391</v>
       </c>
       <c r="K3">
-        <v>0.8250874173747889</v>
+        <v>1.327649784914968</v>
       </c>
       <c r="L3">
-        <v>0.07998271512773414</v>
+        <v>0.2592806340793103</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9527663887373308</v>
+        <v>1.883239106679895</v>
       </c>
       <c r="C4">
-        <v>0.04461631470214655</v>
+        <v>0.01116520683416411</v>
       </c>
       <c r="D4">
-        <v>0.07888484335887824</v>
+        <v>0.01911154582446528</v>
       </c>
       <c r="E4">
-        <v>0.01868401958516586</v>
+        <v>0.07071429031197507</v>
       </c>
       <c r="F4">
-        <v>6.721466750112228</v>
+        <v>6.896144708780099</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1803383806432421</v>
+        <v>0.2571212288252838</v>
       </c>
       <c r="K4">
-        <v>0.7646490871147762</v>
+        <v>1.324156127388022</v>
       </c>
       <c r="L4">
-        <v>0.07717599131767372</v>
+        <v>0.2607903568574983</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9272731064260995</v>
+        <v>1.88285706661901</v>
       </c>
       <c r="C5">
-        <v>0.04260253955304449</v>
+        <v>0.01073459623033557</v>
       </c>
       <c r="D5">
-        <v>0.07605790817892455</v>
+        <v>0.01835847611946662</v>
       </c>
       <c r="E5">
-        <v>0.01872708051466976</v>
+        <v>0.07086582266493302</v>
       </c>
       <c r="F5">
-        <v>6.563324959311785</v>
+        <v>6.848282981670849</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1774642717752357</v>
+        <v>0.2562726549881518</v>
       </c>
       <c r="K5">
-        <v>0.7405501379197972</v>
+        <v>1.323019033808052</v>
       </c>
       <c r="L5">
-        <v>0.0760941250361995</v>
+        <v>0.2614514928433849</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9230752125544655</v>
+        <v>1.882814926617357</v>
       </c>
       <c r="C6">
-        <v>0.04226958907930367</v>
+        <v>0.01066334438681338</v>
       </c>
       <c r="D6">
-        <v>0.07558945720366239</v>
+        <v>0.01823340160761688</v>
       </c>
       <c r="E6">
-        <v>0.01873466994285788</v>
+        <v>0.07089139888144302</v>
       </c>
       <c r="F6">
-        <v>6.537144303979233</v>
+        <v>6.840343176378099</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1769886665464497</v>
+        <v>0.2561320140509267</v>
       </c>
       <c r="K6">
-        <v>0.7365790843592634</v>
+        <v>1.322847522790497</v>
       </c>
       <c r="L6">
-        <v>0.07591810566820101</v>
+        <v>0.2615640477969308</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9524201819538689</v>
+        <v>1.883232526581764</v>
       </c>
       <c r="C7">
-        <v>0.04458905715195982</v>
+        <v>0.01115938259624016</v>
       </c>
       <c r="D7">
-        <v>0.07884665121983403</v>
+        <v>0.0191013914369762</v>
       </c>
       <c r="E7">
-        <v>0.0186845707710841</v>
+        <v>0.07071630616068703</v>
       </c>
       <c r="F7">
-        <v>6.719328593065029</v>
+        <v>6.895498717293492</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1802995072040616</v>
+        <v>0.257109766916173</v>
       </c>
       <c r="K7">
-        <v>0.7643220003046736</v>
+        <v>1.324139632064174</v>
       </c>
       <c r="L7">
-        <v>0.07716115550272207</v>
+        <v>0.2607990872357462</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.087403537422887</v>
+        <v>1.88817149144532</v>
       </c>
       <c r="C8">
-        <v>0.0550651693651929</v>
+        <v>0.01338544342741699</v>
       </c>
       <c r="D8">
-        <v>0.09339064431239308</v>
+        <v>0.02292859594171404</v>
       </c>
       <c r="E8">
-        <v>0.01852852483202216</v>
+        <v>0.07000378557478903</v>
       </c>
       <c r="F8">
-        <v>7.536138724574869</v>
+        <v>7.140016304967162</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1951742881872462</v>
+        <v>0.261463185694069</v>
       </c>
       <c r="K8">
-        <v>0.8915404428708484</v>
+        <v>1.332358247934792</v>
       </c>
       <c r="L8">
-        <v>0.08320090092326637</v>
+        <v>0.2578264735719387</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.375801244838271</v>
+        <v>1.908995095785912</v>
       </c>
       <c r="C9">
-        <v>0.07682341021899219</v>
+        <v>0.01789140105790921</v>
       </c>
       <c r="D9">
-        <v>0.1228590465416204</v>
+        <v>0.03043280216797939</v>
       </c>
       <c r="E9">
-        <v>0.01846911173627497</v>
+        <v>0.0688216180199861</v>
       </c>
       <c r="F9">
-        <v>9.199575164176082</v>
+        <v>7.623826277718052</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2255809753842115</v>
+        <v>0.2701442728344645</v>
       </c>
       <c r="K9">
-        <v>1.162063705292496</v>
+        <v>1.357543038645247</v>
       </c>
       <c r="L9">
-        <v>0.09733689276279733</v>
+        <v>0.2534439857367516</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.606445567283174</v>
+        <v>1.931103118597207</v>
       </c>
       <c r="C10">
-        <v>0.09393292345593807</v>
+        <v>0.02129476794834773</v>
       </c>
       <c r="D10">
-        <v>0.1454466104699179</v>
+        <v>0.0359554411162577</v>
       </c>
       <c r="E10">
-        <v>0.01858976692357572</v>
+        <v>0.0680832922879322</v>
       </c>
       <c r="F10">
-        <v>10.4759619390482</v>
+        <v>7.982195614809797</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2489836576314772</v>
+        <v>0.2766152031089604</v>
       </c>
       <c r="K10">
-        <v>1.377805993820516</v>
+        <v>1.381603391434368</v>
       </c>
       <c r="L10">
-        <v>0.1094461266670805</v>
+        <v>0.2511052198034562</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.716558693199971</v>
+        <v>1.942643926733496</v>
       </c>
       <c r="C11">
-        <v>0.1020606515722164</v>
+        <v>0.02286477156737021</v>
       </c>
       <c r="D11">
-        <v>0.1560175151014391</v>
+        <v>0.0384720049939915</v>
       </c>
       <c r="E11">
-        <v>0.01868393109217692</v>
+        <v>0.06777549425172857</v>
       </c>
       <c r="F11">
-        <v>11.07266674831453</v>
+        <v>8.145924044504341</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2599398188487143</v>
+        <v>0.2795803299336228</v>
       </c>
       <c r="K11">
-        <v>1.480717396802106</v>
+        <v>1.393762649370871</v>
       </c>
       <c r="L11">
-        <v>0.1154136517363469</v>
+        <v>0.2502324226437054</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.759109572154159</v>
+        <v>1.947227798893749</v>
       </c>
       <c r="C12">
-        <v>0.105197721204604</v>
+        <v>0.02346254730001363</v>
       </c>
       <c r="D12">
-        <v>0.1600717227878192</v>
+        <v>0.03942574452744907</v>
       </c>
       <c r="E12">
-        <v>0.01872558216250475</v>
+        <v>0.0676629607096686</v>
       </c>
       <c r="F12">
-        <v>11.30134060891345</v>
+        <v>8.208029526195389</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2641407520824046</v>
+        <v>0.280706313691816</v>
       </c>
       <c r="K12">
-        <v>1.520476922645287</v>
+        <v>1.398542112831052</v>
       </c>
       <c r="L12">
-        <v>0.117747566392282</v>
+        <v>0.2499293876078212</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.749905666757456</v>
+        <v>1.946231074973781</v>
       </c>
       <c r="C13">
-        <v>0.1045192908368762</v>
+        <v>0.02333365922866903</v>
       </c>
       <c r="D13">
-        <v>0.1591961472375516</v>
+        <v>0.03922030287152722</v>
       </c>
       <c r="E13">
-        <v>0.01871633933947159</v>
+        <v>0.06768701811590283</v>
       </c>
       <c r="F13">
-        <v>11.25196387834001</v>
+        <v>8.194649265328223</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2632335607786587</v>
+        <v>0.2804636715588558</v>
       </c>
       <c r="K13">
-        <v>1.511877099073985</v>
+        <v>1.397504978871495</v>
       </c>
       <c r="L13">
-        <v>0.1172414770386538</v>
+        <v>0.2499934298102033</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.720041612466389</v>
+        <v>1.943016761884309</v>
       </c>
       <c r="C14">
-        <v>0.1023174914862466</v>
+        <v>0.02291388514673542</v>
       </c>
       <c r="D14">
-        <v>0.1563499765107679</v>
+        <v>0.03855045336908347</v>
       </c>
       <c r="E14">
-        <v>0.01868723550419205</v>
+        <v>0.06776615550165133</v>
       </c>
       <c r="F14">
-        <v>11.09142298053348</v>
+        <v>8.151031372085242</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.26028434234739</v>
+        <v>0.2796729016828152</v>
       </c>
       <c r="K14">
-        <v>1.483971977517371</v>
+        <v>1.394152348574437</v>
       </c>
       <c r="L14">
-        <v>0.1156041277887496</v>
+        <v>0.2502069411843308</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.701863573066078</v>
+        <v>1.941075729684457</v>
       </c>
       <c r="C15">
-        <v>0.1009768577476677</v>
+        <v>0.02265718802156869</v>
       </c>
       <c r="D15">
-        <v>0.1546135645449453</v>
+        <v>0.03814025627691819</v>
       </c>
       <c r="E15">
-        <v>0.01867020004544528</v>
+        <v>0.06781515293611129</v>
       </c>
       <c r="F15">
-        <v>10.99345344116188</v>
+        <v>8.124327950491988</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2584848802180773</v>
+        <v>0.2791889451382659</v>
       </c>
       <c r="K15">
-        <v>1.466985370988908</v>
+        <v>1.392121571163017</v>
       </c>
       <c r="L15">
-        <v>0.1146111200709043</v>
+        <v>0.2503413008148172</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.599362705024134</v>
+        <v>1.930378778080978</v>
       </c>
       <c r="C16">
-        <v>0.09340949124607789</v>
+        <v>0.02119261291797159</v>
       </c>
       <c r="D16">
-        <v>0.1447624476858635</v>
+        <v>0.03579107724745256</v>
       </c>
       <c r="E16">
-        <v>0.01858443195166171</v>
+        <v>0.0681039712925946</v>
       </c>
       <c r="F16">
-        <v>10.43732262625466</v>
+        <v>7.971510074006062</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2482745056420725</v>
+        <v>0.2764218628409765</v>
       </c>
       <c r="K16">
-        <v>1.371184988560373</v>
+        <v>1.380833222359371</v>
       </c>
       <c r="L16">
-        <v>0.1090660421745184</v>
+        <v>0.2511661041947946</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537883208925308</v>
+        <v>1.924196746640234</v>
       </c>
       <c r="C17">
-        <v>0.08886190497584323</v>
+        <v>0.02029980736904236</v>
       </c>
       <c r="D17">
-        <v>0.1388007104280433</v>
+        <v>0.03435114011524831</v>
       </c>
       <c r="E17">
-        <v>0.01854210804370027</v>
+        <v>0.06828833171704751</v>
       </c>
       <c r="F17">
-        <v>10.10054211039915</v>
+        <v>7.877944353102578</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2420952414774291</v>
+        <v>0.2747298937350635</v>
       </c>
       <c r="K17">
-        <v>1.313705408856322</v>
+        <v>1.37421944387421</v>
       </c>
       <c r="L17">
-        <v>0.1057873315781208</v>
+        <v>0.251721037970924</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.503003343453599</v>
+        <v>1.920780647475311</v>
       </c>
       <c r="C18">
-        <v>0.08627802467695744</v>
+        <v>0.01978833369192046</v>
       </c>
       <c r="D18">
-        <v>0.1353989289541033</v>
+        <v>0.03352332063802521</v>
       </c>
       <c r="E18">
-        <v>0.0185214383676664</v>
+        <v>0.06839701384165409</v>
       </c>
       <c r="F18">
-        <v>9.908320492660437</v>
+        <v>7.824193899484612</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2385697875623123</v>
+        <v>0.2737587344547805</v>
       </c>
       <c r="K18">
-        <v>1.281086624469964</v>
+        <v>1.370529621670642</v>
       </c>
       <c r="L18">
-        <v>0.103944157790373</v>
+        <v>0.2520582106314322</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.491273289747994</v>
+        <v>1.919647991112356</v>
       </c>
       <c r="C19">
-        <v>0.08540834909528883</v>
+        <v>0.01961550514023713</v>
       </c>
       <c r="D19">
-        <v>0.1342515766271504</v>
+        <v>0.03324309819934967</v>
       </c>
       <c r="E19">
-        <v>0.01851506115109025</v>
+        <v>0.06843426607478609</v>
       </c>
       <c r="F19">
-        <v>9.843481216418951</v>
+        <v>7.806006153242578</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2373808451373023</v>
+        <v>0.273430260921117</v>
       </c>
       <c r="K19">
-        <v>1.270115438319579</v>
+        <v>1.369299920617294</v>
       </c>
       <c r="L19">
-        <v>0.1033271858411595</v>
+        <v>0.2521754614885623</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.544377241793228</v>
+        <v>1.924840380287264</v>
       </c>
       <c r="C20">
-        <v>0.08934264892208432</v>
+        <v>0.02039463561749244</v>
       </c>
       <c r="D20">
-        <v>0.1394324673651539</v>
+        <v>0.03450438195275751</v>
       </c>
       <c r="E20">
-        <v>0.0185462308977673</v>
+        <v>0.06826843280577233</v>
       </c>
       <c r="F20">
-        <v>10.1362364490252</v>
+        <v>7.8878977181582</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2427500136580178</v>
+        <v>0.2749097975344839</v>
       </c>
       <c r="K20">
-        <v>1.319777762523131</v>
+        <v>1.374911664575677</v>
       </c>
       <c r="L20">
-        <v>0.1061318858519655</v>
+        <v>0.251660102556535</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728789324449423</v>
+        <v>1.943955083868815</v>
       </c>
       <c r="C21">
-        <v>0.1029625201053932</v>
+        <v>0.02303709385596164</v>
       </c>
       <c r="D21">
-        <v>0.1571845003774541</v>
+        <v>0.03874718223167406</v>
       </c>
       <c r="E21">
-        <v>0.01869561838258349</v>
+        <v>0.06774280186001214</v>
       </c>
       <c r="F21">
-        <v>11.1385005824186</v>
+        <v>8.163840122444071</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2611491217724335</v>
+        <v>0.2799050838069945</v>
       </c>
       <c r="K21">
-        <v>1.492146075169472</v>
+        <v>1.395132343927571</v>
       </c>
       <c r="L21">
-        <v>0.1160829743535174</v>
+        <v>0.2501434821306248</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.854348105337806</v>
+        <v>1.957692913152755</v>
       </c>
       <c r="C22">
-        <v>0.1122149654760562</v>
+        <v>0.02478308781913086</v>
       </c>
       <c r="D22">
-        <v>0.1690899972217181</v>
+        <v>0.04152466629237495</v>
       </c>
       <c r="E22">
-        <v>0.01882837786909697</v>
+        <v>0.06742271399872024</v>
       </c>
       <c r="F22">
-        <v>11.80958770961377</v>
+        <v>8.344798704672883</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2734817053844623</v>
+        <v>0.2831882114252267</v>
       </c>
       <c r="K22">
-        <v>1.609457432618882</v>
+        <v>1.409368070028933</v>
       </c>
       <c r="L22">
-        <v>0.1230233569133574</v>
+        <v>0.2493124217796066</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.786835163986524</v>
+        <v>1.950246743489004</v>
       </c>
       <c r="C23">
-        <v>0.1072410457554156</v>
+        <v>0.02384944147628687</v>
       </c>
       <c r="D23">
-        <v>0.1627048603536139</v>
+        <v>0.04004180135838453</v>
       </c>
       <c r="E23">
-        <v>0.01875418161914766</v>
+        <v>0.06759141036617677</v>
       </c>
       <c r="F23">
-        <v>11.44980001169898</v>
+        <v>8.248160235388355</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2668686937033087</v>
+        <v>0.2814342365340181</v>
       </c>
       <c r="K23">
-        <v>1.546381926814462</v>
+        <v>1.401676685860821</v>
       </c>
       <c r="L23">
-        <v>0.1192761909709716</v>
+        <v>0.2497413238884221</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.54143984744573</v>
+        <v>1.924548963574807</v>
       </c>
       <c r="C24">
-        <v>0.08912521002777396</v>
+        <v>0.02035175813009005</v>
       </c>
       <c r="D24">
-        <v>0.1391467706457803</v>
+        <v>0.0344351012699633</v>
       </c>
       <c r="E24">
-        <v>0.01854435557182388</v>
+        <v>0.06827742072100573</v>
       </c>
       <c r="F24">
-        <v>10.12009471397755</v>
+        <v>7.883397672114455</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2424539073361487</v>
+        <v>0.2748284581238991</v>
       </c>
       <c r="K24">
-        <v>1.317031129081045</v>
+        <v>1.374598361118188</v>
       </c>
       <c r="L24">
-        <v>0.1059759832664824</v>
+        <v>0.2516875949717345</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.294829798579258</v>
+        <v>1.90216746134206</v>
       </c>
       <c r="C25">
-        <v>0.07077045627475798</v>
+        <v>0.01665663344046919</v>
       </c>
       <c r="D25">
-        <v>0.1147508258898142</v>
+        <v>0.02840179777228968</v>
       </c>
       <c r="E25">
-        <v>0.01845743760935381</v>
+        <v>0.06911849401364911</v>
       </c>
       <c r="F25">
-        <v>8.74135753540412</v>
+        <v>7.492451898675114</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2171928481033234</v>
+        <v>0.2677798612286608</v>
       </c>
       <c r="K25">
-        <v>1.086226510468521</v>
+        <v>1.349756155385478</v>
       </c>
       <c r="L25">
-        <v>0.09323596732860295</v>
+        <v>0.2544747810555634</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.890262829142614</v>
+        <v>1.125437531438763</v>
       </c>
       <c r="C2">
-        <v>0.01399785247282637</v>
+        <v>0.05797322799170956</v>
       </c>
       <c r="D2">
-        <v>0.02396514811884032</v>
+        <v>0.09738343588092846</v>
       </c>
       <c r="E2">
-        <v>0.06982531799436043</v>
+        <v>0.01850246718729576</v>
       </c>
       <c r="F2">
-        <v>7.206549594585169</v>
+        <v>7.761069866449674</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2626523037579247</v>
+        <v>0.1992780157553895</v>
       </c>
       <c r="K2">
-        <v>1.335197723484129</v>
+        <v>0.9272967107649777</v>
       </c>
       <c r="L2">
-        <v>0.2571189953132063</v>
+        <v>0.08498166395860096</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.885041995309194</v>
+        <v>1.016819153727425</v>
       </c>
       <c r="C3">
-        <v>0.0122322069236489</v>
+        <v>0.04962171949505034</v>
       </c>
       <c r="D3">
-        <v>0.02095857312384908</v>
+        <v>0.0858662163184718</v>
       </c>
       <c r="E3">
-        <v>0.07035925692298939</v>
+        <v>0.01859639533403445</v>
       </c>
       <c r="F3">
-        <v>7.013907244349809</v>
+        <v>7.112975094872127</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2592143794182391</v>
+        <v>0.1874623171960295</v>
       </c>
       <c r="K3">
-        <v>1.327649784914968</v>
+        <v>0.8250874173745899</v>
       </c>
       <c r="L3">
-        <v>0.2592806340793103</v>
+        <v>0.07998271512762756</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.883239106679895</v>
+        <v>0.9527663887372171</v>
       </c>
       <c r="C4">
-        <v>0.01116520683416411</v>
+        <v>0.04461631470212524</v>
       </c>
       <c r="D4">
-        <v>0.01911154582446528</v>
+        <v>0.07888484335877166</v>
       </c>
       <c r="E4">
-        <v>0.07071429031197507</v>
+        <v>0.01868401958514898</v>
       </c>
       <c r="F4">
-        <v>6.896144708780099</v>
+        <v>6.721466750112228</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2571212288252838</v>
+        <v>0.1803383806432635</v>
       </c>
       <c r="K4">
-        <v>1.324156127388022</v>
+        <v>0.7646490871148046</v>
       </c>
       <c r="L4">
-        <v>0.2607903568574983</v>
+        <v>0.07717599131760977</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.88285706661901</v>
+        <v>0.92727310642627</v>
       </c>
       <c r="C5">
-        <v>0.01073459623033557</v>
+        <v>0.04260253955326476</v>
       </c>
       <c r="D5">
-        <v>0.01835847611946662</v>
+        <v>0.07605790817871849</v>
       </c>
       <c r="E5">
-        <v>0.07086582266493302</v>
+        <v>0.01872708051467153</v>
       </c>
       <c r="F5">
-        <v>6.848282981670849</v>
+        <v>6.563324959311871</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2562726549881518</v>
+        <v>0.1774642717752286</v>
       </c>
       <c r="K5">
-        <v>1.323019033808052</v>
+        <v>0.7405501379197119</v>
       </c>
       <c r="L5">
-        <v>0.2614514928433849</v>
+        <v>0.07609412503604318</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.882814926617357</v>
+        <v>0.9230752125547781</v>
       </c>
       <c r="C6">
-        <v>0.01066334438681338</v>
+        <v>0.04226958907966605</v>
       </c>
       <c r="D6">
-        <v>0.01823340160761688</v>
+        <v>0.0755894572036766</v>
       </c>
       <c r="E6">
-        <v>0.07089139888144302</v>
+        <v>0.01873466994281792</v>
       </c>
       <c r="F6">
-        <v>6.840343176378099</v>
+        <v>6.537144303979346</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2561320140509267</v>
+        <v>0.1769886665462721</v>
       </c>
       <c r="K6">
-        <v>1.322847522790497</v>
+        <v>0.7365790843591924</v>
       </c>
       <c r="L6">
-        <v>0.2615640477969308</v>
+        <v>0.0759181056681939</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.883232526581764</v>
+        <v>0.95242018195367</v>
       </c>
       <c r="C7">
-        <v>0.01115938259624016</v>
+        <v>0.04458905715195272</v>
       </c>
       <c r="D7">
-        <v>0.0191013914369762</v>
+        <v>0.07884665121959245</v>
       </c>
       <c r="E7">
-        <v>0.07071630616068703</v>
+        <v>0.01868457077108321</v>
       </c>
       <c r="F7">
-        <v>6.895498717293492</v>
+        <v>6.719328593065057</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.257109766916173</v>
+        <v>0.1802995072040687</v>
       </c>
       <c r="K7">
-        <v>1.324139632064174</v>
+        <v>0.7643220003047588</v>
       </c>
       <c r="L7">
-        <v>0.2607990872357462</v>
+        <v>0.07716115550272207</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.88817149144532</v>
+        <v>1.087403537423199</v>
       </c>
       <c r="C8">
-        <v>0.01338544342741699</v>
+        <v>0.05506516936601713</v>
       </c>
       <c r="D8">
-        <v>0.02292859594171404</v>
+        <v>0.09339064431297572</v>
       </c>
       <c r="E8">
-        <v>0.07000378557478903</v>
+        <v>0.0185285248320568</v>
       </c>
       <c r="F8">
-        <v>7.140016304967162</v>
+        <v>7.536138724574755</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.261463185694069</v>
+        <v>0.1951742881874168</v>
       </c>
       <c r="K8">
-        <v>1.332358247934792</v>
+        <v>0.8915404428707632</v>
       </c>
       <c r="L8">
-        <v>0.2578264735719387</v>
+        <v>0.08320090092299637</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.908995095785912</v>
+        <v>1.375801244838215</v>
       </c>
       <c r="C9">
-        <v>0.01789140105790921</v>
+        <v>0.0768234102186014</v>
       </c>
       <c r="D9">
-        <v>0.03043280216797939</v>
+        <v>0.1228590465418762</v>
       </c>
       <c r="E9">
-        <v>0.0688216180199861</v>
+        <v>0.01846911173633625</v>
       </c>
       <c r="F9">
-        <v>7.623826277718052</v>
+        <v>9.199575164176082</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2701442728344645</v>
+        <v>0.2255809753839699</v>
       </c>
       <c r="K9">
-        <v>1.357543038645247</v>
+        <v>1.162063705292383</v>
       </c>
       <c r="L9">
-        <v>0.2534439857367516</v>
+        <v>0.09733689276257707</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.931103118597207</v>
+        <v>1.606445567283231</v>
       </c>
       <c r="C10">
-        <v>0.02129476794834773</v>
+        <v>0.09393292345592386</v>
       </c>
       <c r="D10">
-        <v>0.0359554411162577</v>
+        <v>0.1454466104699037</v>
       </c>
       <c r="E10">
-        <v>0.0680832922879322</v>
+        <v>0.01858976692363701</v>
       </c>
       <c r="F10">
-        <v>7.982195614809797</v>
+        <v>10.47596193904815</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2766152031089604</v>
+        <v>0.2489836576314772</v>
       </c>
       <c r="K10">
-        <v>1.381603391434368</v>
+        <v>1.377805993820488</v>
       </c>
       <c r="L10">
-        <v>0.2511052198034562</v>
+        <v>0.1094461266671942</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.942643926733496</v>
+        <v>1.716558693199914</v>
       </c>
       <c r="C11">
-        <v>0.02286477156737021</v>
+        <v>0.1020606515712501</v>
       </c>
       <c r="D11">
-        <v>0.0384720049939915</v>
+        <v>0.1560175151013823</v>
       </c>
       <c r="E11">
-        <v>0.06777549425172857</v>
+        <v>0.01868393109210231</v>
       </c>
       <c r="F11">
-        <v>8.145924044504341</v>
+        <v>11.0726667483147</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2795803299336228</v>
+        <v>0.2599398188484088</v>
       </c>
       <c r="K11">
-        <v>1.393762649370871</v>
+        <v>1.480717396801964</v>
       </c>
       <c r="L11">
-        <v>0.2502324226437054</v>
+        <v>0.1154136517361408</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.947227798893749</v>
+        <v>1.759109572154159</v>
       </c>
       <c r="C12">
-        <v>0.02346254730001363</v>
+        <v>0.1051977212051014</v>
       </c>
       <c r="D12">
-        <v>0.03942574452744907</v>
+        <v>0.1600717227873503</v>
       </c>
       <c r="E12">
-        <v>0.0676629607096686</v>
+        <v>0.01872558216238396</v>
       </c>
       <c r="F12">
-        <v>8.208029526195389</v>
+        <v>11.30134060891345</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.280706313691816</v>
+        <v>0.2641407520825325</v>
       </c>
       <c r="K12">
-        <v>1.398542112831052</v>
+        <v>1.520476922645202</v>
       </c>
       <c r="L12">
-        <v>0.2499293876078212</v>
+        <v>0.1177475663921754</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.946231074973781</v>
+        <v>1.749905666757314</v>
       </c>
       <c r="C13">
-        <v>0.02333365922866903</v>
+        <v>0.1045192908359667</v>
       </c>
       <c r="D13">
-        <v>0.03922030287152722</v>
+        <v>0.1591961472376084</v>
       </c>
       <c r="E13">
-        <v>0.06768701811590283</v>
+        <v>0.01871633933943784</v>
       </c>
       <c r="F13">
-        <v>8.194649265328223</v>
+        <v>11.25196387834006</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2804636715588558</v>
+        <v>0.2632335607786658</v>
       </c>
       <c r="K13">
-        <v>1.397504978871495</v>
+        <v>1.511877099074042</v>
       </c>
       <c r="L13">
-        <v>0.2499934298102033</v>
+        <v>0.1172414770389096</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.943016761884309</v>
+        <v>1.720041612466133</v>
       </c>
       <c r="C14">
-        <v>0.02291388514673542</v>
+        <v>0.1023174914865876</v>
       </c>
       <c r="D14">
-        <v>0.03855045336908347</v>
+        <v>0.1563499765110947</v>
       </c>
       <c r="E14">
-        <v>0.06776615550165133</v>
+        <v>0.01868723550405349</v>
       </c>
       <c r="F14">
-        <v>8.151031372085242</v>
+        <v>11.09142298053371</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2796729016828152</v>
+        <v>0.2602843423472478</v>
       </c>
       <c r="K14">
-        <v>1.394152348574437</v>
+        <v>1.483971977517456</v>
       </c>
       <c r="L14">
-        <v>0.2502069411843308</v>
+        <v>0.1156041277887496</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.941075729684457</v>
+        <v>1.701863573066277</v>
       </c>
       <c r="C15">
-        <v>0.02265718802156869</v>
+        <v>0.1009768577471846</v>
       </c>
       <c r="D15">
-        <v>0.03814025627691819</v>
+        <v>0.1546135645449453</v>
       </c>
       <c r="E15">
-        <v>0.06781515293611129</v>
+        <v>0.01867020004539022</v>
       </c>
       <c r="F15">
-        <v>8.124327950491988</v>
+        <v>10.99345344116188</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2791889451382659</v>
+        <v>0.2584848802179849</v>
       </c>
       <c r="K15">
-        <v>1.392121571163017</v>
+        <v>1.466985370988652</v>
       </c>
       <c r="L15">
-        <v>0.2503413008148172</v>
+        <v>0.1146111200709186</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.930378778080978</v>
+        <v>1.599362705024049</v>
       </c>
       <c r="C16">
-        <v>0.02119261291797159</v>
+        <v>0.09340949124509734</v>
       </c>
       <c r="D16">
-        <v>0.03579107724745256</v>
+        <v>0.144762447686503</v>
       </c>
       <c r="E16">
-        <v>0.0681039712925946</v>
+        <v>0.01858443195164394</v>
       </c>
       <c r="F16">
-        <v>7.971510074006062</v>
+        <v>10.4373226262548</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2764218628409765</v>
+        <v>0.2482745056419731</v>
       </c>
       <c r="K16">
-        <v>1.380833222359371</v>
+        <v>1.371184988560515</v>
       </c>
       <c r="L16">
-        <v>0.2511661041947946</v>
+        <v>0.1090660421746463</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.924196746640234</v>
+        <v>1.537883208925081</v>
       </c>
       <c r="C17">
-        <v>0.02029980736904236</v>
+        <v>0.08886190497582902</v>
       </c>
       <c r="D17">
-        <v>0.03435114011524831</v>
+        <v>0.1388007104280291</v>
       </c>
       <c r="E17">
-        <v>0.06828833171704751</v>
+        <v>0.0185421080436976</v>
       </c>
       <c r="F17">
-        <v>7.877944353102578</v>
+        <v>10.10054211039918</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2747298937350635</v>
+        <v>0.2420952414774007</v>
       </c>
       <c r="K17">
-        <v>1.37421944387421</v>
+        <v>1.313705408856407</v>
       </c>
       <c r="L17">
-        <v>0.251721037970924</v>
+        <v>0.1057873315780995</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.920780647475311</v>
+        <v>1.503003343452917</v>
       </c>
       <c r="C18">
-        <v>0.01978833369192046</v>
+        <v>0.08627802467701429</v>
       </c>
       <c r="D18">
-        <v>0.03352332063802521</v>
+        <v>0.1353989289544018</v>
       </c>
       <c r="E18">
-        <v>0.06839701384165409</v>
+        <v>0.01852143836769571</v>
       </c>
       <c r="F18">
-        <v>7.824193899484612</v>
+        <v>9.908320492660295</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2737587344547805</v>
+        <v>0.238569787562362</v>
       </c>
       <c r="K18">
-        <v>1.370529621670642</v>
+        <v>1.28108662446985</v>
       </c>
       <c r="L18">
-        <v>0.2520582106314322</v>
+        <v>0.1039441577906359</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.919647991112356</v>
+        <v>1.491273289748307</v>
       </c>
       <c r="C19">
-        <v>0.01961550514023713</v>
+        <v>0.08540834909531725</v>
       </c>
       <c r="D19">
-        <v>0.03324309819934967</v>
+        <v>0.134251576627193</v>
       </c>
       <c r="E19">
-        <v>0.06843426607478609</v>
+        <v>0.01851506115105295</v>
       </c>
       <c r="F19">
-        <v>7.806006153242578</v>
+        <v>9.843481216418866</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.273430260921117</v>
+        <v>0.2373808451375297</v>
       </c>
       <c r="K19">
-        <v>1.369299920617294</v>
+        <v>1.270115438319692</v>
       </c>
       <c r="L19">
-        <v>0.2521754614885623</v>
+        <v>0.1033271858412519</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.924840380287264</v>
+        <v>1.544377241793512</v>
       </c>
       <c r="C20">
-        <v>0.02039463561749244</v>
+        <v>0.08934264892198485</v>
       </c>
       <c r="D20">
-        <v>0.03450438195275751</v>
+        <v>0.139432467364756</v>
       </c>
       <c r="E20">
-        <v>0.06826843280577233</v>
+        <v>0.01854623089775931</v>
       </c>
       <c r="F20">
-        <v>7.8878977181582</v>
+        <v>10.1362364490254</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2749097975344839</v>
+        <v>0.2427500136580321</v>
       </c>
       <c r="K20">
-        <v>1.374911664575677</v>
+        <v>1.319777762523131</v>
       </c>
       <c r="L20">
-        <v>0.251660102556535</v>
+        <v>0.1061318858520792</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.943955083868815</v>
+        <v>1.728789324449309</v>
       </c>
       <c r="C21">
-        <v>0.02303709385596164</v>
+        <v>0.1029625201058906</v>
       </c>
       <c r="D21">
-        <v>0.03874718223167406</v>
+        <v>0.1571845003775252</v>
       </c>
       <c r="E21">
-        <v>0.06774280186001214</v>
+        <v>0.01869561838279843</v>
       </c>
       <c r="F21">
-        <v>8.163840122444071</v>
+        <v>11.1385005824186</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2799050838069945</v>
+        <v>0.2611491217724691</v>
       </c>
       <c r="K21">
-        <v>1.395132343927571</v>
+        <v>1.492146075169387</v>
       </c>
       <c r="L21">
-        <v>0.2501434821306248</v>
+        <v>0.1160829743535459</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.957692913152755</v>
+        <v>1.854348105337436</v>
       </c>
       <c r="C22">
-        <v>0.02478308781913086</v>
+        <v>0.1122149654760847</v>
       </c>
       <c r="D22">
-        <v>0.04152466629237495</v>
+        <v>0.1690899972218176</v>
       </c>
       <c r="E22">
-        <v>0.06742271399872024</v>
+        <v>0.01882837786919289</v>
       </c>
       <c r="F22">
-        <v>8.344798704672883</v>
+        <v>11.8095877096136</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2831882114252267</v>
+        <v>0.273481705384043</v>
       </c>
       <c r="K22">
-        <v>1.409368070028933</v>
+        <v>1.60945743261891</v>
       </c>
       <c r="L22">
-        <v>0.2493124217796066</v>
+        <v>0.1230233569133148</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.950246743489004</v>
+        <v>1.786835163986126</v>
       </c>
       <c r="C23">
-        <v>0.02384944147628687</v>
+        <v>0.1072410457559698</v>
       </c>
       <c r="D23">
-        <v>0.04004180135838453</v>
+        <v>0.1627048603534433</v>
       </c>
       <c r="E23">
-        <v>0.06759141036617677</v>
+        <v>0.01875418161922759</v>
       </c>
       <c r="F23">
-        <v>8.248160235388355</v>
+        <v>11.44980001169893</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2814342365340181</v>
+        <v>0.2668686937033016</v>
       </c>
       <c r="K23">
-        <v>1.401676685860821</v>
+        <v>1.546381926814433</v>
       </c>
       <c r="L23">
-        <v>0.2497413238884221</v>
+        <v>0.1192761909711137</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.924548963574807</v>
+        <v>1.541439847445929</v>
       </c>
       <c r="C24">
-        <v>0.02035175813009005</v>
+        <v>0.08912521002693552</v>
       </c>
       <c r="D24">
-        <v>0.0344351012699633</v>
+        <v>0.1391467706456808</v>
       </c>
       <c r="E24">
-        <v>0.06827742072100573</v>
+        <v>0.01854435557188072</v>
       </c>
       <c r="F24">
-        <v>7.883397672114455</v>
+        <v>10.12009471397744</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2748284581238991</v>
+        <v>0.2424539073363405</v>
       </c>
       <c r="K24">
-        <v>1.374598361118188</v>
+        <v>1.317031129081016</v>
       </c>
       <c r="L24">
-        <v>0.2516875949717345</v>
+        <v>0.1059759832664398</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.90216746134206</v>
+        <v>1.29482979857903</v>
       </c>
       <c r="C25">
-        <v>0.01665663344046919</v>
+        <v>0.07077045627422507</v>
       </c>
       <c r="D25">
-        <v>0.02840179777228968</v>
+        <v>0.1147508258899563</v>
       </c>
       <c r="E25">
-        <v>0.06911849401364911</v>
+        <v>0.01845743760935203</v>
       </c>
       <c r="F25">
-        <v>7.492451898675114</v>
+        <v>8.741357535404205</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2677798612286608</v>
+        <v>0.2171928481035081</v>
       </c>
       <c r="K25">
-        <v>1.349756155385478</v>
+        <v>1.086226510468606</v>
       </c>
       <c r="L25">
-        <v>0.2544747810555634</v>
+        <v>0.09323596732868111</v>
       </c>
       <c r="M25">
         <v>0</v>
